--- a/xlsx_files/CM Junior.xlsx
+++ b/xlsx_files/CM Junior.xlsx
@@ -43,7 +43,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -54,6 +54,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E0E0E0"/>
         <bgColor rgb="00E0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -108,7 +114,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -543,14 +549,6 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>PHYSICAL TRAINING
-Tynchtykbek Makerov
-Red classroom
-09:00-10:00</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -558,7 +556,6 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B7" s="6" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -566,7 +563,6 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B8" s="6" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -574,7 +570,6 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B9" s="7" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -694,6 +689,13 @@
           <t>14:00</t>
         </is>
       </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>Digital and Social Media
+14:00-15:30
+room:Creative room: 104</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -701,6 +703,7 @@
           <t>14:15</t>
         </is>
       </c>
+      <c r="E27" s="6" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -708,6 +711,7 @@
           <t>14:30</t>
         </is>
       </c>
+      <c r="E28" s="6" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -715,6 +719,7 @@
           <t>14:45</t>
         </is>
       </c>
+      <c r="E29" s="6" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -722,6 +727,7 @@
           <t>15:00</t>
         </is>
       </c>
+      <c r="E30" s="6" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -729,6 +735,7 @@
           <t>15:15</t>
         </is>
       </c>
+      <c r="E31" s="7" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -750,6 +757,34 @@
           <t>16:00</t>
         </is>
       </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>Documentary Film and Scriptwriting
+16:00-17:30
+room:Creative room: 104</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t>Documentary Film and Scriptwriting
+16:00-17:30
+room:Creative room: 104</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="inlineStr">
+        <is>
+          <t>Digital and Social Media
+16:00-17:30
+room:Creative room: 104</t>
+        </is>
+      </c>
+      <c r="F34" s="5" t="inlineStr">
+        <is>
+          <t>Entreprenurship and Innovation
+16:00-17:30
+room:Creative room: 104</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -757,6 +792,10 @@
           <t>16:15</t>
         </is>
       </c>
+      <c r="C35" s="6" t="n"/>
+      <c r="D35" s="6" t="n"/>
+      <c r="E35" s="6" t="n"/>
+      <c r="F35" s="6" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -764,6 +803,10 @@
           <t>16:30</t>
         </is>
       </c>
+      <c r="C36" s="6" t="n"/>
+      <c r="D36" s="6" t="n"/>
+      <c r="E36" s="6" t="n"/>
+      <c r="F36" s="6" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -771,6 +814,10 @@
           <t>16:45</t>
         </is>
       </c>
+      <c r="C37" s="6" t="n"/>
+      <c r="D37" s="6" t="n"/>
+      <c r="E37" s="6" t="n"/>
+      <c r="F37" s="6" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -778,6 +825,10 @@
           <t>17:00</t>
         </is>
       </c>
+      <c r="C38" s="6" t="n"/>
+      <c r="D38" s="6" t="n"/>
+      <c r="E38" s="6" t="n"/>
+      <c r="F38" s="6" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -785,6 +836,10 @@
           <t>17:15</t>
         </is>
       </c>
+      <c r="C39" s="7" t="n"/>
+      <c r="D39" s="7" t="n"/>
+      <c r="E39" s="7" t="n"/>
+      <c r="F39" s="7" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -976,7 +1031,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="E26:E31"/>
+    <mergeCell ref="C34:C39"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
@@ -984,7 +1041,9 @@
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="F34:F39"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/xlsx_files/CM Junior.xlsx
+++ b/xlsx_files/CM Junior.xlsx
@@ -43,7 +43,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -54,6 +54,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E0E0E0"/>
         <bgColor rgb="00E0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0092D050"/>
+        <bgColor rgb="0092D050"/>
       </patternFill>
     </fill>
     <fill>
@@ -114,7 +120,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -689,13 +695,6 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="E26" s="5" t="inlineStr">
-        <is>
-          <t>Digital and Social Media
-14:00-15:30
-room:Creative room: 104</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -703,7 +702,6 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="E27" s="6" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -711,7 +709,6 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="E28" s="6" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -719,7 +716,6 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="E29" s="6" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -727,7 +723,6 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="E30" s="6" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -735,7 +730,6 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="E31" s="7" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -758,22 +752,22 @@
         </is>
       </c>
       <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>Digital and Social Media
+16:00-17:30
+room:Creative room: 104</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
         <is>
           <t>Documentary Film and Scriptwriting
 16:00-17:30
 room:Creative room: 104</t>
         </is>
       </c>
-      <c r="D34" s="5" t="inlineStr">
+      <c r="E34" s="5" t="inlineStr">
         <is>
           <t>Documentary Film and Scriptwriting
-16:00-17:30
-room:Creative room: 104</t>
-        </is>
-      </c>
-      <c r="E34" s="5" t="inlineStr">
-        <is>
-          <t>Digital and Social Media
 16:00-17:30
 room:Creative room: 104</t>
         </is>
@@ -1031,8 +1025,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="E26:E31"/>
+  <mergeCells count="11">
     <mergeCell ref="C34:C39"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>

--- a/xlsx_files/CM Junior.xlsx
+++ b/xlsx_files/CM Junior.xlsx
@@ -43,7 +43,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -54,12 +54,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E0E0E0"/>
         <bgColor rgb="00E0E0E0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0092D050"/>
-        <bgColor rgb="0092D050"/>
       </patternFill>
     </fill>
     <fill>
@@ -120,7 +114,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -695,6 +689,13 @@
           <t>14:00</t>
         </is>
       </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>Digital and Social Media
+14:00-15:30
+room:Creative room: 104</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -702,6 +703,7 @@
           <t>14:15</t>
         </is>
       </c>
+      <c r="F27" s="6" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -709,6 +711,7 @@
           <t>14:30</t>
         </is>
       </c>
+      <c r="F28" s="6" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -716,6 +719,7 @@
           <t>14:45</t>
         </is>
       </c>
+      <c r="F29" s="6" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -723,6 +727,7 @@
           <t>15:00</t>
         </is>
       </c>
+      <c r="F30" s="6" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -730,6 +735,7 @@
           <t>15:15</t>
         </is>
       </c>
+      <c r="F31" s="7" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -751,14 +757,14 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="C34" s="5" t="inlineStr">
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>Digital and Social Media
 16:00-17:30
 room:Creative room: 104</t>
         </is>
       </c>
-      <c r="D34" s="5" t="inlineStr">
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>Documentary Film and Scriptwriting
 16:00-17:30
@@ -786,8 +792,8 @@
           <t>16:15</t>
         </is>
       </c>
+      <c r="B35" s="6" t="n"/>
       <c r="C35" s="6" t="n"/>
-      <c r="D35" s="6" t="n"/>
       <c r="E35" s="6" t="n"/>
       <c r="F35" s="6" t="n"/>
     </row>
@@ -797,8 +803,8 @@
           <t>16:30</t>
         </is>
       </c>
+      <c r="B36" s="6" t="n"/>
       <c r="C36" s="6" t="n"/>
-      <c r="D36" s="6" t="n"/>
       <c r="E36" s="6" t="n"/>
       <c r="F36" s="6" t="n"/>
     </row>
@@ -808,8 +814,8 @@
           <t>16:45</t>
         </is>
       </c>
+      <c r="B37" s="6" t="n"/>
       <c r="C37" s="6" t="n"/>
-      <c r="D37" s="6" t="n"/>
       <c r="E37" s="6" t="n"/>
       <c r="F37" s="6" t="n"/>
     </row>
@@ -819,8 +825,8 @@
           <t>17:00</t>
         </is>
       </c>
+      <c r="B38" s="6" t="n"/>
       <c r="C38" s="6" t="n"/>
-      <c r="D38" s="6" t="n"/>
       <c r="E38" s="6" t="n"/>
       <c r="F38" s="6" t="n"/>
     </row>
@@ -830,8 +836,8 @@
           <t>17:15</t>
         </is>
       </c>
+      <c r="B39" s="7" t="n"/>
       <c r="C39" s="7" t="n"/>
-      <c r="D39" s="7" t="n"/>
       <c r="E39" s="7" t="n"/>
       <c r="F39" s="7" t="n"/>
     </row>
@@ -1025,7 +1031,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="F26:F31"/>
     <mergeCell ref="C34:C39"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
@@ -1034,7 +1041,7 @@
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="B34:B39"/>
     <mergeCell ref="E34:E39"/>
     <mergeCell ref="F34:F39"/>
   </mergeCells>

--- a/xlsx_files/CM Junior.xlsx
+++ b/xlsx_files/CM Junior.xlsx
@@ -43,7 +43,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -58,8 +58,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00D0CECE"/>
+        <bgColor rgb="00D0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FFFFFF"/>
         <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F4B084"/>
+        <bgColor rgb="00F4B084"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8CBAD"/>
+        <bgColor rgb="00F8CBAD"/>
       </patternFill>
     </fill>
   </fills>
@@ -102,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -114,11 +132,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -549,6 +576,20 @@
           <t>09:00</t>
         </is>
       </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Documentary Film and Scriptwriting
+09:00-10:30
+room:104</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>Digital and Social Media
+09:00-10:30
+room:203</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -556,6 +597,8 @@
           <t>09:15</t>
         </is>
       </c>
+      <c r="B7" s="7" t="n"/>
+      <c r="F7" s="7" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -563,6 +606,8 @@
           <t>09:30</t>
         </is>
       </c>
+      <c r="B8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -570,6 +615,8 @@
           <t>09:45</t>
         </is>
       </c>
+      <c r="B9" s="7" t="n"/>
+      <c r="F9" s="7" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -577,6 +624,8 @@
           <t>10:00</t>
         </is>
       </c>
+      <c r="B10" s="7" t="n"/>
+      <c r="F10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -584,6 +633,8 @@
           <t>10:15</t>
         </is>
       </c>
+      <c r="B11" s="8" t="n"/>
+      <c r="F11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -605,6 +656,27 @@
           <t>11:00</t>
         </is>
       </c>
+      <c r="B14" s="9" t="inlineStr">
+        <is>
+          <t>Visual Communication
+11:00-12:30
+room:109</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>Physical training
+11:00-13:00
+room:100</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>Science Communication
+11:00-12:30
+room:328</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -612,6 +684,9 @@
           <t>11:15</t>
         </is>
       </c>
+      <c r="B15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="7" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -619,6 +694,9 @@
           <t>11:30</t>
         </is>
       </c>
+      <c r="B16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
+      <c r="F16" s="7" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -626,6 +704,9 @@
           <t>11:45</t>
         </is>
       </c>
+      <c r="B17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
+      <c r="F17" s="7" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -633,6 +714,9 @@
           <t>12:00</t>
         </is>
       </c>
+      <c r="B18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
+      <c r="F18" s="7" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -640,6 +724,9 @@
           <t>12:15</t>
         </is>
       </c>
+      <c r="B19" s="8" t="n"/>
+      <c r="E19" s="7" t="n"/>
+      <c r="F19" s="8" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -647,6 +734,7 @@
           <t>12:30</t>
         </is>
       </c>
+      <c r="E20" s="7" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -654,6 +742,7 @@
           <t>12:45</t>
         </is>
       </c>
+      <c r="E21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -689,11 +778,25 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr">
+      <c r="B26" s="6" t="inlineStr">
         <is>
           <t>Digital and Social Media
 14:00-15:30
-room:Creative room: 104</t>
+room:203</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>Science Communication
+14:00-15:30
+room:202</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>Entreprenurship and Innovation
+14:00-15:30
+room:104</t>
         </is>
       </c>
     </row>
@@ -703,7 +806,9 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="F27" s="6" t="n"/>
+      <c r="B27" s="7" t="n"/>
+      <c r="C27" s="7" t="n"/>
+      <c r="F27" s="7" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -711,7 +816,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="F28" s="6" t="n"/>
+      <c r="B28" s="7" t="n"/>
+      <c r="C28" s="7" t="n"/>
+      <c r="F28" s="7" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -719,7 +826,9 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="F29" s="6" t="n"/>
+      <c r="B29" s="7" t="n"/>
+      <c r="C29" s="7" t="n"/>
+      <c r="F29" s="7" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -727,7 +836,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="F30" s="6" t="n"/>
+      <c r="B30" s="7" t="n"/>
+      <c r="C30" s="7" t="n"/>
+      <c r="F30" s="7" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -735,7 +846,9 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="F31" s="7" t="n"/>
+      <c r="B31" s="8" t="n"/>
+      <c r="C31" s="8" t="n"/>
+      <c r="F31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -757,32 +870,11 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B34" s="5" t="inlineStr">
-        <is>
-          <t>Digital and Social Media
-16:00-17:30
-room:Creative room: 104</t>
-        </is>
-      </c>
-      <c r="C34" s="5" t="inlineStr">
-        <is>
-          <t>Documentary Film and Scriptwriting
-16:00-17:30
-room:Creative room: 104</t>
-        </is>
-      </c>
-      <c r="E34" s="5" t="inlineStr">
-        <is>
-          <t>Documentary Film and Scriptwriting
-16:00-17:30
-room:Creative room: 104</t>
-        </is>
-      </c>
-      <c r="F34" s="5" t="inlineStr">
+      <c r="C34" s="10" t="inlineStr">
         <is>
           <t>Entreprenurship and Innovation
 16:00-17:30
-room:Creative room: 104</t>
+room:111</t>
         </is>
       </c>
     </row>
@@ -792,10 +884,7 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B35" s="6" t="n"/>
-      <c r="C35" s="6" t="n"/>
-      <c r="E35" s="6" t="n"/>
-      <c r="F35" s="6" t="n"/>
+      <c r="C35" s="7" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -803,10 +892,7 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B36" s="6" t="n"/>
-      <c r="C36" s="6" t="n"/>
-      <c r="E36" s="6" t="n"/>
-      <c r="F36" s="6" t="n"/>
+      <c r="C36" s="7" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -814,10 +900,7 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B37" s="6" t="n"/>
-      <c r="C37" s="6" t="n"/>
-      <c r="E37" s="6" t="n"/>
-      <c r="F37" s="6" t="n"/>
+      <c r="C37" s="7" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -825,10 +908,7 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B38" s="6" t="n"/>
-      <c r="C38" s="6" t="n"/>
-      <c r="E38" s="6" t="n"/>
-      <c r="F38" s="6" t="n"/>
+      <c r="C38" s="7" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -836,10 +916,7 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="B39" s="7" t="n"/>
-      <c r="C39" s="7" t="n"/>
-      <c r="E39" s="7" t="n"/>
-      <c r="F39" s="7" t="n"/>
+      <c r="C39" s="8" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -1031,19 +1108,24 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="17">
+    <mergeCell ref="B26:B31"/>
     <mergeCell ref="F26:F31"/>
     <mergeCell ref="C34:C39"/>
+    <mergeCell ref="C26:C31"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B6:B11"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="F34:F39"/>
+    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="E14:E21"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="E14:E19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/xlsx_files/CM Junior.xlsx
+++ b/xlsx_files/CM Junior.xlsx
@@ -43,7 +43,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -58,26 +58,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D0CECE"/>
-        <bgColor rgb="00D0CECE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FFFFFF"/>
         <bgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F4B084"/>
-        <bgColor rgb="00F4B084"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00F8CBAD"/>
         <bgColor rgb="00F8CBAD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F4B084"/>
+        <bgColor rgb="00F4B084"/>
       </patternFill>
     </fill>
   </fills>
@@ -120,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -132,18 +138,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -578,16 +587,23 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>Documentary Film and Scriptwriting
+          <t>Science Communication
 09:00-10:30
-room:104</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>Digital and Social Media
+room:111</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Physical training
+09:00-11:00
+room:100</t>
+        </is>
+      </c>
+      <c r="E6" s="7" t="inlineStr">
+        <is>
+          <t>Science Communication
 09:00-10:30
-room:203</t>
+room:109</t>
         </is>
       </c>
     </row>
@@ -597,8 +613,9 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B7" s="7" t="n"/>
-      <c r="F7" s="7" t="n"/>
+      <c r="B7" s="8" t="n"/>
+      <c r="D7" s="8" t="n"/>
+      <c r="E7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -606,8 +623,9 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="B8" s="8" t="n"/>
+      <c r="D8" s="8" t="n"/>
+      <c r="E8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -615,8 +633,9 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
+      <c r="B9" s="8" t="n"/>
+      <c r="D9" s="8" t="n"/>
+      <c r="E9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -624,8 +643,9 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
+      <c r="B10" s="8" t="n"/>
+      <c r="D10" s="8" t="n"/>
+      <c r="E10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -633,8 +653,9 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B11" s="8" t="n"/>
-      <c r="F11" s="8" t="n"/>
+      <c r="B11" s="9" t="n"/>
+      <c r="D11" s="8" t="n"/>
+      <c r="E11" s="9" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -642,6 +663,7 @@
           <t>10:30</t>
         </is>
       </c>
+      <c r="D12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -649,6 +671,7 @@
           <t>10:45</t>
         </is>
       </c>
+      <c r="D13" s="9" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
@@ -656,25 +679,18 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B14" s="9" t="inlineStr">
+      <c r="B14" s="10" t="inlineStr">
         <is>
           <t>Visual Communication
 11:00-12:30
-room:109</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>Physical training
-11:00-13:00
-room:100</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="inlineStr">
-        <is>
-          <t>Science Communication
+room:209</t>
+        </is>
+      </c>
+      <c r="C14" s="11" t="inlineStr">
+        <is>
+          <t>Digital and Social Media
 11:00-12:30
-room:328</t>
+room:201</t>
         </is>
       </c>
     </row>
@@ -684,9 +700,8 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B15" s="7" t="n"/>
-      <c r="E15" s="7" t="n"/>
-      <c r="F15" s="7" t="n"/>
+      <c r="B15" s="8" t="n"/>
+      <c r="C15" s="8" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -694,9 +709,8 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
-      <c r="F16" s="7" t="n"/>
+      <c r="B16" s="8" t="n"/>
+      <c r="C16" s="8" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -704,9 +718,8 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B17" s="7" t="n"/>
-      <c r="E17" s="7" t="n"/>
-      <c r="F17" s="7" t="n"/>
+      <c r="B17" s="8" t="n"/>
+      <c r="C17" s="8" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -714,9 +727,8 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B18" s="7" t="n"/>
-      <c r="E18" s="7" t="n"/>
-      <c r="F18" s="7" t="n"/>
+      <c r="B18" s="8" t="n"/>
+      <c r="C18" s="8" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -724,9 +736,8 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B19" s="8" t="n"/>
-      <c r="E19" s="7" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="B19" s="9" t="n"/>
+      <c r="C19" s="9" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -734,7 +745,6 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="E20" s="7" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -742,7 +752,6 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="E21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -782,19 +791,12 @@
         <is>
           <t>Digital and Social Media
 14:00-15:30
-room:203</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>Science Communication
-14:00-15:30
-room:202</t>
-        </is>
-      </c>
-      <c r="F26" s="5" t="inlineStr">
-        <is>
-          <t>Entreprenurship and Innovation
+room:104</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="inlineStr">
+        <is>
+          <t>Documentary Film and Scriptwriting
 14:00-15:30
 room:104</t>
         </is>
@@ -806,9 +808,8 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B27" s="7" t="n"/>
-      <c r="C27" s="7" t="n"/>
-      <c r="F27" s="7" t="n"/>
+      <c r="B27" s="8" t="n"/>
+      <c r="C27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -816,9 +817,8 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B28" s="7" t="n"/>
-      <c r="C28" s="7" t="n"/>
-      <c r="F28" s="7" t="n"/>
+      <c r="B28" s="8" t="n"/>
+      <c r="C28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -826,9 +826,8 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B29" s="7" t="n"/>
-      <c r="C29" s="7" t="n"/>
-      <c r="F29" s="7" t="n"/>
+      <c r="B29" s="8" t="n"/>
+      <c r="C29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -836,9 +835,8 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B30" s="7" t="n"/>
-      <c r="C30" s="7" t="n"/>
-      <c r="F30" s="7" t="n"/>
+      <c r="B30" s="8" t="n"/>
+      <c r="C30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -846,9 +844,8 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B31" s="8" t="n"/>
-      <c r="C31" s="8" t="n"/>
-      <c r="F31" s="8" t="n"/>
+      <c r="B31" s="9" t="n"/>
+      <c r="C31" s="9" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -870,11 +867,25 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="C34" s="10" t="inlineStr">
+      <c r="D34" s="11" t="inlineStr">
         <is>
           <t>Entreprenurship and Innovation
 16:00-17:30
-room:111</t>
+room:201</t>
+        </is>
+      </c>
+      <c r="E34" s="6" t="inlineStr">
+        <is>
+          <t>Visual Communication
+16:00-17:30
+room:104</t>
+        </is>
+      </c>
+      <c r="F34" s="10" t="inlineStr">
+        <is>
+          <t>Entreprenurship and Innovation
+16:00-17:30
+room:209</t>
         </is>
       </c>
     </row>
@@ -884,7 +895,9 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="C35" s="7" t="n"/>
+      <c r="D35" s="8" t="n"/>
+      <c r="E35" s="8" t="n"/>
+      <c r="F35" s="8" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -892,7 +905,9 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="C36" s="7" t="n"/>
+      <c r="D36" s="8" t="n"/>
+      <c r="E36" s="8" t="n"/>
+      <c r="F36" s="8" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -900,7 +915,9 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="C37" s="7" t="n"/>
+      <c r="D37" s="8" t="n"/>
+      <c r="E37" s="8" t="n"/>
+      <c r="F37" s="8" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -908,7 +925,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="C38" s="7" t="n"/>
+      <c r="D38" s="8" t="n"/>
+      <c r="E38" s="8" t="n"/>
+      <c r="F38" s="8" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -916,7 +935,9 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="C39" s="8" t="n"/>
+      <c r="D39" s="9" t="n"/>
+      <c r="E39" s="9" t="n"/>
+      <c r="F39" s="9" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -1110,8 +1131,6 @@
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="B26:B31"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="C34:C39"/>
     <mergeCell ref="C26:C31"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
@@ -1121,11 +1140,13 @@
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F14:F19"/>
-    <mergeCell ref="E14:E21"/>
-    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="F34:F39"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="C14:C19"/>
     <mergeCell ref="B14:B19"/>
-    <mergeCell ref="E14:E19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
